--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71888436-EE6B-4EA9-9732-C13E5017E2D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A9FE60-009F-44D5-B12D-260CAD1FBA29}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCC925F4-5354-4FEF-852A-AFB0FB601A22}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -49,9 +49,6 @@
     <t>US-5</t>
   </si>
   <si>
-    <t>PO</t>
-  </si>
-  <si>
     <t>User ID</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
     <t>This player plays at MHW since the release of the game and he wants to fight high level monsters. So he needs to find his armor's set with charms and decorations, generate his armor's set with talents that he selects</t>
   </si>
   <si>
-    <t>Confirmed players</t>
-  </si>
-  <si>
-    <t>Novice players</t>
-  </si>
-  <si>
     <t>US-6</t>
   </si>
   <si>
@@ -115,10 +106,13 @@
     <t>Panel for build creation</t>
   </si>
   <si>
-    <t>Confirmed players, novice players</t>
-  </si>
-  <si>
     <t>Panel for build generation with caracteristics selection</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>As player</t>
   </si>
 </sst>
 </file>
@@ -169,7 +163,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -178,12 +181,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -202,25 +199,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BEDE8C4-B8A5-449D-A6A2-A837A2BC10CB}" name="Tableau2" displayName="Tableau2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BEDE8C4-B8A5-449D-A6A2-A837A2BC10CB}" name="Tableau2" displayName="Tableau2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:D7" xr:uid="{0D765F28-CC12-4A97-98A6-875964F3505A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CADF3A40-8056-464C-9026-5D6E5D138A83}" name="ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CADF3A40-8056-464C-9026-5D6E5D138A83}" name="ID" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{54B6484C-C181-40A1-B683-78401341AF36}" name="Role" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{28D5B8C8-FBAC-4EE9-AEE6-5BC872CD2512}" name="Context"/>
     <tableColumn id="3" xr3:uid="{387FD88E-8449-4C72-9384-63792D2B584F}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{168E329A-8091-4C63-A141-C2C39549A92B}" name="PO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EC0F617-D470-477E-8C01-ABD2E89C68DD}" name="Tableau1" displayName="Tableau1" ref="A1:C3" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EC0F617-D470-477E-8C01-ABD2E89C68DD}" name="Tableau1" displayName="Tableau1" ref="A1:C3" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:C3" xr:uid="{2264239A-1F35-4FBE-A312-0F8B79330808}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E7EBC04E-3E87-4EE8-A161-49D47D9CC847}" name="User ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{047FBF56-8EAE-428C-9670-19B740A23517}" name="User role" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C51B5B5C-82A1-444C-A880-080D020ADA32}" name="Context" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E7EBC04E-3E87-4EE8-A161-49D47D9CC847}" name="User ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{047FBF56-8EAE-428C-9670-19B740A23517}" name="User role" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C51B5B5C-82A1-444C-A880-080D020ADA32}" name="Context" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -526,15 +523,16 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="81.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="46.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="4" max="4" width="50.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -542,97 +540,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>20</v>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +658,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
@@ -674,10 +672,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -685,10 +683,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Desktop\WORKSPACE\MHW_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71888436-EE6B-4EA9-9732-C13E5017E2D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8F59F1-87A1-442C-A3E0-543E45847643}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCC925F4-5354-4FEF-852A-AFB0FB601A22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCC925F4-5354-4FEF-852A-AFB0FB601A22}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -85,9 +85,6 @@
     <t>I want to access to a list of existing armors</t>
   </si>
   <si>
-    <t>I want to access to a list of existing decorations</t>
-  </si>
-  <si>
     <t>I want to create my own build</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>I want to access to a list of existing talents</t>
   </si>
   <si>
-    <t>I want to generate a build</t>
-  </si>
-  <si>
     <t>Filtering list with existing armors</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>Filtering list with existing charms</t>
   </si>
   <si>
-    <t>Filtering list with existing decorations</t>
-  </si>
-  <si>
     <t>Panel for build creation</t>
   </si>
   <si>
@@ -119,6 +110,147 @@
   </si>
   <si>
     <t>Panel for build generation with caracteristics selection</t>
+  </si>
+  <si>
+    <t>US-11</t>
+  </si>
+  <si>
+    <t>US-12</t>
+  </si>
+  <si>
+    <t>The user can browse the complete list of existing armors</t>
+  </si>
+  <si>
+    <t>The user can filter the armor list by type</t>
+  </si>
+  <si>
+    <t>The user can filter the armor list by rarity</t>
+  </si>
+  <si>
+    <t>The user can filter the armor list for specific armorsets</t>
+  </si>
+  <si>
+    <t>Shows a list of all existing armors from the API</t>
+  </si>
+  <si>
+    <t>When clicking on an armor, the user has access to more specific informations about the piece of armor (defense, resistance, etc.)</t>
+  </si>
+  <si>
+    <t>I want to access a list of weapons</t>
+  </si>
+  <si>
+    <t>When entering text in a TextBox the user can filter the list to display  armors containing the text written</t>
+  </si>
+  <si>
+    <t>Filters the list by a selected Armor type in a given list</t>
+  </si>
+  <si>
+    <t>Filters the list by a selected Armorset type in a given list</t>
+  </si>
+  <si>
+    <t>Filters the list by a selected Rarity type in a given list</t>
+  </si>
+  <si>
+    <t>US-13</t>
+  </si>
+  <si>
+    <t>US-14</t>
+  </si>
+  <si>
+    <t>US-15</t>
+  </si>
+  <si>
+    <t>US-16</t>
+  </si>
+  <si>
+    <t>US-17</t>
+  </si>
+  <si>
+    <t>The user has the choice of adding selected armor piece to its current build</t>
+  </si>
+  <si>
+    <t>US-31</t>
+  </si>
+  <si>
+    <t>US-32</t>
+  </si>
+  <si>
+    <t>The user can access its current build</t>
+  </si>
+  <si>
+    <t>Displays every piece constituting the current build</t>
+  </si>
+  <si>
+    <t>The user can save its current build</t>
+  </si>
+  <si>
+    <t>US-33</t>
+  </si>
+  <si>
+    <t>The user can load its current build</t>
+  </si>
+  <si>
+    <t>US-34</t>
+  </si>
+  <si>
+    <t>The user can delete pieces of equipment from the current build</t>
+  </si>
+  <si>
+    <t>On each equipment piece, there is a delete button allowing the user to remove this equipement from the current build.</t>
+  </si>
+  <si>
+    <t>The user can add the currently selected armor piece to its current build</t>
+  </si>
+  <si>
+    <t>The user can select and get details of a specific armor</t>
+  </si>
+  <si>
+    <t>The user is able to persist his current build via a Save button, to use it for later purposes</t>
+  </si>
+  <si>
+    <t>Displays a list of previously saved builds and allows the user to load it</t>
+  </si>
+  <si>
+    <t>I want to access a list of decorations</t>
+  </si>
+  <si>
+    <t>Filtering list with existing weapons</t>
+  </si>
+  <si>
+    <t>US-21</t>
+  </si>
+  <si>
+    <t>US-22</t>
+  </si>
+  <si>
+    <t>US-23</t>
+  </si>
+  <si>
+    <t>US-24</t>
+  </si>
+  <si>
+    <t>US-25</t>
+  </si>
+  <si>
+    <t>US-26</t>
+  </si>
+  <si>
+    <t>US-27</t>
+  </si>
+  <si>
+    <t>The user can browse the complete list of existing weapons</t>
+  </si>
+  <si>
+    <t>Shows a list of all existing weapons from the API</t>
+  </si>
+  <si>
+    <t>The user can filter the armor list by name</t>
+  </si>
+  <si>
+    <t>The user can filter the armor list for sharpness</t>
+  </si>
+  <si>
+    <t>Filters the list by a selected Sharpness attribute</t>
   </si>
 </sst>
 </file>
@@ -134,15 +266,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -150,11 +288,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -165,11 +340,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -178,12 +369,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -202,10 +387,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BEDE8C4-B8A5-449D-A6A2-A837A2BC10CB}" name="Tableau2" displayName="Tableau2" ref="A1:D7" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:D7" xr:uid="{0D765F28-CC12-4A97-98A6-875964F3505A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1BEDE8C4-B8A5-449D-A6A2-A837A2BC10CB}" name="Tableau2" displayName="Tableau2" ref="A1:D9" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:D9" xr:uid="{0D765F28-CC12-4A97-98A6-875964F3505A}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{CADF3A40-8056-464C-9026-5D6E5D138A83}" name="ID" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CADF3A40-8056-464C-9026-5D6E5D138A83}" name="ID" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{28D5B8C8-FBAC-4EE9-AEE6-5BC872CD2512}" name="Context"/>
     <tableColumn id="3" xr3:uid="{387FD88E-8449-4C72-9384-63792D2B584F}" name="Description"/>
     <tableColumn id="4" xr3:uid="{168E329A-8091-4C63-A141-C2C39549A92B}" name="PO"/>
@@ -215,19 +400,19 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EC0F617-D470-477E-8C01-ABD2E89C68DD}" name="Tableau1" displayName="Tableau1" ref="A1:C3" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0EC0F617-D470-477E-8C01-ABD2E89C68DD}" name="Tableau1" displayName="Tableau1" ref="A1:C3" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C3" xr:uid="{2264239A-1F35-4FBE-A312-0F8B79330808}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E7EBC04E-3E87-4EE8-A161-49D47D9CC847}" name="User ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{047FBF56-8EAE-428C-9670-19B740A23517}" name="User role" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C51B5B5C-82A1-444C-A880-080D020ADA32}" name="Context" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E7EBC04E-3E87-4EE8-A161-49D47D9CC847}" name="User ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{047FBF56-8EAE-428C-9670-19B740A23517}" name="User role" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C51B5B5C-82A1-444C-A880-080D020ADA32}" name="Context" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,21 +708,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD85003-EF2D-4B8D-A07E-08E02CCF0D59}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="81.77734375" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -559,79 +744,299 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D27" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="D28" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -651,14 +1056,14 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" customWidth="1"/>
-    <col min="3" max="3" width="42.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -669,7 +1074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -680,7 +1085,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -691,77 +1096,77 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
